--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Bmp3</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Bmp3</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +543,10 @@
         <v>1.114284</v>
       </c>
       <c r="I2">
-        <v>0.4204448636921045</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4204448636921046</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>0.4776175318693334</v>
+        <v>0.637614476196</v>
       </c>
       <c r="R2">
-        <v>4.298557786824</v>
+        <v>5.738530285764</v>
       </c>
       <c r="S2">
-        <v>0.1624708218057499</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="T2">
-        <v>0.16247082180575</v>
+        <v>0.3840886036988015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>1.114284</v>
       </c>
       <c r="I3">
-        <v>0.4204448636921045</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4204448636921046</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
         <v>0.1306500466186667</v>
@@ -635,10 +635,10 @@
         <v>1.175850419568</v>
       </c>
       <c r="S3">
-        <v>0.04444313499132933</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="T3">
-        <v>0.04444313499132933</v>
+        <v>0.07870146593648154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>1.114284</v>
       </c>
       <c r="I4">
-        <v>0.4204448636921045</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4204448636921046</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>0.406119746628</v>
+        <v>0.6230973366253334</v>
       </c>
       <c r="R4">
-        <v>3.655077719652</v>
+        <v>5.607876029628</v>
       </c>
       <c r="S4">
-        <v>0.1381494702004482</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="T4">
-        <v>0.1381494702004482</v>
+        <v>0.3753437146230962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>1.114284</v>
       </c>
       <c r="I5">
-        <v>0.4204448636921045</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4204448636921046</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>0.2215997638386667</v>
+        <v>0.2687094627906667</v>
       </c>
       <c r="R5">
-        <v>1.994397874548</v>
+        <v>2.418385165116</v>
       </c>
       <c r="S5">
-        <v>0.07538143669457703</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="T5">
-        <v>0.07538143669457704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.5119886666666666</v>
-      </c>
-      <c r="H6">
-        <v>1.535966</v>
-      </c>
-      <c r="I6">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="J6">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.285895333333333</v>
-      </c>
-      <c r="N6">
-        <v>3.857686</v>
-      </c>
-      <c r="O6">
-        <v>0.3864259878905995</v>
-      </c>
-      <c r="P6">
-        <v>0.3864259878905995</v>
-      </c>
-      <c r="Q6">
-        <v>0.6583638371862223</v>
-      </c>
-      <c r="R6">
-        <v>5.925274534676</v>
-      </c>
-      <c r="S6">
-        <v>0.2239551660848495</v>
-      </c>
-      <c r="T6">
-        <v>0.2239551660848495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.5119886666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.535966</v>
-      </c>
-      <c r="I7">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="J7">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3517506666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.055252</v>
-      </c>
-      <c r="O7">
-        <v>0.1057050253891921</v>
-      </c>
-      <c r="P7">
-        <v>0.1057050253891921</v>
-      </c>
-      <c r="Q7">
-        <v>0.1800923548257778</v>
-      </c>
-      <c r="R7">
-        <v>1.620831193432</v>
-      </c>
-      <c r="S7">
-        <v>0.06126189039786278</v>
-      </c>
-      <c r="T7">
-        <v>0.06126189039786277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.5119886666666666</v>
-      </c>
-      <c r="H8">
-        <v>1.535966</v>
-      </c>
-      <c r="I8">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="J8">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.093401</v>
-      </c>
-      <c r="N8">
-        <v>3.280203</v>
-      </c>
-      <c r="O8">
-        <v>0.328579279069553</v>
-      </c>
-      <c r="P8">
-        <v>0.3285792790695531</v>
-      </c>
-      <c r="Q8">
-        <v>0.5598089201219999</v>
-      </c>
-      <c r="R8">
-        <v>5.038280281097999</v>
-      </c>
-      <c r="S8">
-        <v>0.1904298088691048</v>
-      </c>
-      <c r="T8">
-        <v>0.1904298088691048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.5119886666666666</v>
-      </c>
-      <c r="H9">
-        <v>1.535966</v>
-      </c>
-      <c r="I9">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="J9">
-        <v>0.5795551363078955</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.5966156666666667</v>
-      </c>
-      <c r="N9">
-        <v>1.789847</v>
-      </c>
-      <c r="O9">
-        <v>0.1792897076506553</v>
-      </c>
-      <c r="P9">
-        <v>0.1792897076506553</v>
-      </c>
-      <c r="Q9">
-        <v>0.3054604596891111</v>
-      </c>
-      <c r="R9">
-        <v>2.749144137202</v>
-      </c>
-      <c r="S9">
-        <v>0.1039082709560782</v>
-      </c>
-      <c r="T9">
-        <v>0.1039082709560782</v>
+        <v>0.1618662157416207</v>
       </c>
     </row>
   </sheetData>
